--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A03B5EB-9955-44E0-892F-B4F7B6395CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB4D6A-00A6-4099-8520-AB7191A3245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3690" windowWidth="21195" windowHeight="11805" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB4D6A-00A6-4099-8520-AB7191A3245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1E2351-322B-4DFE-9280-17864B14C9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>깨진 토끼의 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지네의 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의 탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,11 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -821,10 +829,65 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B11*2.5</f>
+        <v>2.9275911946228672E+52</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12" si="1">C13/2</f>
+        <v>15000000000000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>4000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>600000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B12*2.5</f>
+        <v>7.3189779865571681E+52</v>
+      </c>
+      <c r="C13">
+        <v>30000000000000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>4200</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>700000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1E2351-322B-4DFE-9280-17864B14C9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7FC98-1A5E-4E5A-A32B-FB7402A60CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>용의 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -890,6 +894,88 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <f>1.67290925407021E+47*70000</f>
+        <v>1.171036477849147E+52</v>
+      </c>
+      <c r="C14">
+        <v>20000000000000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>4400</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>800000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <f>1.67290925407021E+47*70000</f>
+        <v>1.171036477849147E+52</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15" si="2">C16/2</f>
+        <v>15000000000000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.8333333333333304</v>
+      </c>
+      <c r="E15">
+        <v>4600</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>900000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <f>1.67290925407021E+47*70000</f>
+        <v>1.171036477849147E+52</v>
+      </c>
+      <c r="C16">
+        <v>30000000000000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E16">
+        <v>4800</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1000000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7FC98-1A5E-4E5A-A32B-FB7402A60CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7196E635-DC38-44B9-BD97-6A219FA05C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,7 +116,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>??</t>
+    <t>곰의 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑여우 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,8 +907,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <f>1.67290925407021E+47*70000</f>
-        <v>1.171036477849147E+52</v>
+        <f>B13*10</f>
+        <v>7.3189779865571679E+53</v>
       </c>
       <c r="C14">
         <v>20000000000000</v>
@@ -926,8 +934,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <f>1.67290925407021E+47*70000</f>
-        <v>1.171036477849147E+52</v>
+        <f>B14*3</f>
+        <v>2.1956933959671503E+54</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15" si="2">C16/2</f>
@@ -946,7 +954,7 @@
         <v>900000</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -954,8 +962,8 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <f>1.67290925407021E+47*70000</f>
-        <v>1.171036477849147E+52</v>
+        <f>B15*3</f>
+        <v>6.5870801879014512E+54</v>
       </c>
       <c r="C16">
         <v>30000000000000</v>
@@ -973,7 +981,7 @@
         <v>1000000</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7196E635-DC38-44B9-BD97-6A219FA05C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD6B54-10EA-4026-B532-469A8B2E980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>여우 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시 탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +171,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +190,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -193,15 +218,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,9 +242,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,7 +616,7 @@
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C9" si="0">C3/2</f>
+        <f t="shared" ref="C2:C8" si="0">C3/2</f>
         <v>39062500000</v>
       </c>
       <c r="D2">
@@ -662,7 +700,7 @@
         <v>9.4169677471446082E+41</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>C6/2</f>
         <v>312500000000</v>
       </c>
       <c r="D5">
@@ -718,7 +756,7 @@
         <v>5.7393117866213562E+46</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>C8/2</f>
         <v>1250000000000</v>
       </c>
       <c r="D7">
@@ -774,7 +812,7 @@
         <v>9.5555367819113391E+49</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>C10/2</f>
         <v>5000000000000</v>
       </c>
       <c r="D9">
@@ -911,7 +949,7 @@
         <v>7.3189779865571679E+53</v>
       </c>
       <c r="C14">
-        <v>20000000000000</v>
+        <v>30000000000000</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -938,8 +976,7 @@
         <v>2.1956933959671503E+54</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15" si="2">C16/2</f>
-        <v>15000000000000</v>
+        <v>30000000000000</v>
       </c>
       <c r="D15" s="1">
         <v>7.8333333333333304</v>
@@ -982,6 +1019,87 @@
       </c>
       <c r="H16" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B16*15</f>
+        <v>9.8806202818521765E+55</v>
+      </c>
+      <c r="C17" s="4">
+        <v>30000000000000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7.8333333333333304</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B17*4</f>
+        <v>3.9522481127408706E+56</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30000000000000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5200</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1400000</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <f>B18*3</f>
+        <v>1.1856744338222612E+57</v>
+      </c>
+      <c r="C19" s="4">
+        <v>30000000000000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5400</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1600000</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD6B54-10EA-4026-B532-469A8B2E980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163E064-A27F-4814-A7FB-EE0D152C292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>강시 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑도깨비 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백도깨비 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적도깨비 탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,11 +579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1102,6 +1114,87 @@
         <v>25</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <f>B19*2</f>
+        <v>2.3713488676445224E+57</v>
+      </c>
+      <c r="C20" s="4">
+        <v>60000000000000</v>
+      </c>
+      <c r="D20" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5600</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <f>B20*3</f>
+        <v>7.1140466029335664E+57</v>
+      </c>
+      <c r="C21" s="4">
+        <v>60000000000000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5800</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <f>B21*3</f>
+        <v>2.1342139808800699E+58</v>
+      </c>
+      <c r="C22" s="4">
+        <v>60000000000000</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2200000</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163E064-A27F-4814-A7FB-EE0D152C292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9F967-C551-40B6-A6A8-3AE7D4B42B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,30 @@
   </si>
   <si>
     <t>적도깨비 탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람쥐탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹다람쥐탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿔다람쥐탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백우탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,11 +603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1195,6 +1219,168 @@
         <v>28</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" ref="B23:B28" si="2">B22*2</f>
+        <v>4.2684279617601398E+58</v>
+      </c>
+      <c r="C23" s="4">
+        <v>75000000000000</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E23" s="4">
+        <v>6200</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2300000</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" ref="B24:B28" si="3">B23*3</f>
+        <v>1.2805283885280419E+59</v>
+      </c>
+      <c r="C24" s="4">
+        <v>84000000000000</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6400</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2600000</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="3"/>
+        <v>3.8415851655841259E+59</v>
+      </c>
+      <c r="C25" s="4">
+        <v>93000000000000</v>
+      </c>
+      <c r="D25" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E25" s="4">
+        <v>6600</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2900000</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" ref="B26:B28" si="4">B25*2</f>
+        <v>7.6831703311682518E+59</v>
+      </c>
+      <c r="C26" s="4">
+        <v>102000000000000</v>
+      </c>
+      <c r="D26" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E26" s="4">
+        <v>6800</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3200000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" ref="B27:B28" si="5">B26*3</f>
+        <v>2.3049510993504754E+60</v>
+      </c>
+      <c r="C27" s="4">
+        <v>111000000000000</v>
+      </c>
+      <c r="D27" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7000</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3500000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="5"/>
+        <v>6.9148532980514261E+60</v>
+      </c>
+      <c r="C28" s="4">
+        <v>120000000000000</v>
+      </c>
+      <c r="D28" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7200</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3800000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9F967-C551-40B6-A6A8-3AE7D4B42B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C0D46-7B67-4A8E-806A-DB8244677CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>백우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,11 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" ref="B23:B28" si="2">B22*2</f>
+        <f t="shared" ref="B23" si="2">B22*2</f>
         <v>4.2684279617601398E+58</v>
       </c>
       <c r="C23" s="4">
@@ -1251,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" ref="B24:B28" si="3">B23*3</f>
+        <f t="shared" ref="B24:B25" si="3">B23*3</f>
         <v>1.2805283885280419E+59</v>
       </c>
       <c r="C24" s="4">
@@ -1305,7 +1317,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" ref="B26:B28" si="4">B25*2</f>
+        <f t="shared" ref="B26" si="4">B25*2</f>
         <v>7.6831703311682518E+59</v>
       </c>
       <c r="C26" s="4">
@@ -1379,6 +1391,87 @@
       </c>
       <c r="H28" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B28*8</f>
+        <v>5.5318826384411409E+61</v>
+      </c>
+      <c r="C29" s="4">
+        <v>129000000000000</v>
+      </c>
+      <c r="D29" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7400</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4100000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B29*8</f>
+        <v>4.4255061107529127E+62</v>
+      </c>
+      <c r="C30" s="4">
+        <v>138000000000000</v>
+      </c>
+      <c r="D30" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E30" s="4">
+        <v>7600</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4400000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B30*8</f>
+        <v>3.5404048886023302E+63</v>
+      </c>
+      <c r="C31" s="4">
+        <v>147000000000000</v>
+      </c>
+      <c r="D31" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E31" s="4">
+        <v>7800</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4700000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C0D46-7B67-4A8E-806A-DB8244677CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0661129-1EFD-4464-91D6-524D1F4F0F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른강철이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라강철이탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1474,6 +1486,87 @@
         <v>35</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B31*8</f>
+        <v>2.8323239108818641E+64</v>
+      </c>
+      <c r="C32" s="4">
+        <v>156000000000000</v>
+      </c>
+      <c r="D32" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E32" s="4">
+        <v>8000</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B32*2</f>
+        <v>5.6646478217637283E+64</v>
+      </c>
+      <c r="C33" s="4">
+        <v>165000000000000</v>
+      </c>
+      <c r="D33" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E33" s="4">
+        <v>8200</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5300000</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B33*3</f>
+        <v>1.6993943465291185E+65</v>
+      </c>
+      <c r="C34" s="4">
+        <v>174000000000000</v>
+      </c>
+      <c r="D34" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E34" s="4">
+        <v>8400</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5600000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0661129-1EFD-4464-91D6-524D1F4F0F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E6F62-184B-404B-A8DE-023816558C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="90" yWindow="3285" windowWidth="28800" windowHeight="11610" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>보라강철이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록강철이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색강철이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자색강철이탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1567,6 +1579,87 @@
         <v>40</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B34*3</f>
+        <v>5.0981830395873557E+65</v>
+      </c>
+      <c r="C35" s="4">
+        <v>183000000000000</v>
+      </c>
+      <c r="D35" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E35" s="4">
+        <v>8600</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5900000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <f>B35*3</f>
+        <v>1.5294549118762066E+66</v>
+      </c>
+      <c r="C36" s="4">
+        <v>192000000000000</v>
+      </c>
+      <c r="D36" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E36" s="4">
+        <v>8800</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>6200000</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B36*3</f>
+        <v>4.5883647356286198E+66</v>
+      </c>
+      <c r="C37" s="4">
+        <v>201000000000000</v>
+      </c>
+      <c r="D37" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E37" s="4">
+        <v>9000</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>6500000</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E6F62-184B-404B-A8DE-023816558C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B5303-CA5E-48CF-A178-21CB7290A132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="3285" windowWidth="28800" windowHeight="11610" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>자색강철이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹삼족오탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적삼족오탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼족오탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,11 +651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1660,6 +1672,87 @@
         <v>43</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <f>B37*1.5</f>
+        <v>6.8825471034429301E+66</v>
+      </c>
+      <c r="C38" s="4">
+        <v>210000000000000</v>
+      </c>
+      <c r="D38" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E38" s="4">
+        <v>9200</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>6800000</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ref="B39:B40" si="6">B38*1.5</f>
+        <v>1.0323820655164396E+67</v>
+      </c>
+      <c r="C39" s="4">
+        <v>219000000000000</v>
+      </c>
+      <c r="D39" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E39" s="4">
+        <v>9400</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>7100000</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5485730982746594E+67</v>
+      </c>
+      <c r="C40" s="4">
+        <v>228000000000000</v>
+      </c>
+      <c r="D40" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E40" s="4">
+        <v>9600</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>7400000</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B5303-CA5E-48CF-A178-21CB7290A132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44F8D4B-4861-469F-A5CF-1C515775DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,26 @@
   </si>
   <si>
     <t>삼족오탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자견공탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹견공탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청견공탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황견공탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견공탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,16 +671,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
   </cols>
@@ -1704,7 +1724,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" ref="B39:B40" si="6">B38*1.5</f>
+        <f t="shared" ref="B39:B45" si="6">B38*1.5</f>
         <v>1.0323820655164396E+67</v>
       </c>
       <c r="C39" s="4">
@@ -1751,6 +1771,141 @@
       </c>
       <c r="H40" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3228596474119891E+67</v>
+      </c>
+      <c r="C41" s="4">
+        <v>237000000000000</v>
+      </c>
+      <c r="D41" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E41" s="4">
+        <v>9800</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>7700000</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4842894711179836E+67</v>
+      </c>
+      <c r="C42" s="4">
+        <v>246000000000000</v>
+      </c>
+      <c r="D42" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2264342066769757E+67</v>
+      </c>
+      <c r="C43" s="4">
+        <v>255000000000000</v>
+      </c>
+      <c r="D43" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10200</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>8300000</v>
+      </c>
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="6"/>
+        <v>7.8396513100154636E+67</v>
+      </c>
+      <c r="C44" s="4">
+        <v>264000000000000</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10400</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>8600000</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1759476965023197E+68</v>
+      </c>
+      <c r="C45" s="4">
+        <v>273000000000000</v>
+      </c>
+      <c r="D45" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E45" s="4">
+        <v>10600</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>8900000</v>
+      </c>
+      <c r="H45" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44F8D4B-4861-469F-A5CF-1C515775DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A397DCA-E48B-4825-B137-E32BD90D2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,26 @@
   </si>
   <si>
     <t>견공탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황귀탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청귀탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹귀탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충귀탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등귀탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,11 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -683,6 +703,7 @@
     <col min="2" max="2" width="84.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1906,6 +1927,141 @@
       </c>
       <c r="H45" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <f>B45*2</f>
+        <v>2.3518953930046393E+68</v>
+      </c>
+      <c r="C46" s="4">
+        <v>282000000000000</v>
+      </c>
+      <c r="D46" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E46" s="4">
+        <v>10800</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" ref="B47:B50" si="7">B46*2</f>
+        <v>4.7037907860092786E+68</v>
+      </c>
+      <c r="C47" s="4">
+        <v>291000000000000</v>
+      </c>
+      <c r="D47" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E47" s="4">
+        <v>11000</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="H47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="7"/>
+        <v>9.4075815720185573E+68</v>
+      </c>
+      <c r="C48" s="4">
+        <v>300000000000000</v>
+      </c>
+      <c r="D48" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E48" s="4">
+        <v>11200</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="H48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8815163144037115E+69</v>
+      </c>
+      <c r="C49" s="4">
+        <v>309000000000000</v>
+      </c>
+      <c r="D49" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E49" s="4">
+        <v>11400</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>13000000</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="7"/>
+        <v>3.7630326288074229E+69</v>
+      </c>
+      <c r="C50" s="4">
+        <v>318000000000000</v>
+      </c>
+      <c r="D50" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E50" s="4">
+        <v>11600</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>14000000</v>
+      </c>
+      <c r="H50" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A397DCA-E48B-4825-B137-E32BD90D2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964C5B23-F002-427D-A80A-8BF7DC9623B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,22 @@
   <si>
     <t>등귀탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우탈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우탈2</t>
+  </si>
+  <si>
+    <t>여우탈3</t>
+  </si>
+  <si>
+    <t>여우탈4</t>
+  </si>
+  <si>
+    <t>여우탈5</t>
   </si>
 </sst>
 </file>
@@ -691,11 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1961,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" ref="B47:B50" si="7">B46*2</f>
+        <f t="shared" ref="B47:B55" si="7">B46*2</f>
         <v>4.7037907860092786E+68</v>
       </c>
       <c r="C47" s="4">
@@ -2062,6 +2078,141 @@
       </c>
       <c r="H50" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="7"/>
+        <v>7.5260652576148458E+69</v>
+      </c>
+      <c r="C51" s="4">
+        <v>327000000000000</v>
+      </c>
+      <c r="D51" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E51" s="4">
+        <v>11800</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="H51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="7"/>
+        <v>1.5052130515229692E+70</v>
+      </c>
+      <c r="C52" s="4">
+        <v>336000000000000</v>
+      </c>
+      <c r="D52" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E52" s="4">
+        <v>12000</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>16000000</v>
+      </c>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0104261030459383E+70</v>
+      </c>
+      <c r="C53" s="4">
+        <v>345000000000000</v>
+      </c>
+      <c r="D53" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E53" s="4">
+        <v>12200</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>17000000</v>
+      </c>
+      <c r="H53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="7"/>
+        <v>6.0208522060918767E+70</v>
+      </c>
+      <c r="C54" s="4">
+        <v>354000000000000</v>
+      </c>
+      <c r="D54" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E54" s="4">
+        <v>12400</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>18000000</v>
+      </c>
+      <c r="H54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2041704412183753E+71</v>
+      </c>
+      <c r="C55" s="4">
+        <v>363000000000000</v>
+      </c>
+      <c r="D55" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E55" s="4">
+        <v>12600</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>19000000</v>
+      </c>
+      <c r="H55" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964C5B23-F002-427D-A80A-8BF7DC9623B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D79A03-D7FA-4D6D-B2B7-AF51D50DD05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1977,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" ref="B47:B55" si="7">B46*2</f>
+        <f t="shared" ref="B47:B50" si="7">B46*2</f>
         <v>4.7037907860092786E+68</v>
       </c>
       <c r="C47" s="4">
@@ -2085,8 +2085,8 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="7"/>
-        <v>7.5260652576148458E+69</v>
+        <f>B50*2.5</f>
+        <v>9.4075815720185581E+69</v>
       </c>
       <c r="C51" s="4">
         <v>327000000000000</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <v>15000000</v>
+        <v>16000000</v>
       </c>
       <c r="H51" t="s">
         <v>57</v>
@@ -2112,8 +2112,8 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="7"/>
-        <v>1.5052130515229692E+70</v>
+        <f t="shared" ref="B52:B55" si="8">B51*2.5</f>
+        <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
         <v>336000000000000</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <v>16000000</v>
+        <v>18000000</v>
       </c>
       <c r="H52" t="s">
         <v>58</v>
@@ -2139,8 +2139,8 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="7"/>
-        <v>3.0104261030459383E+70</v>
+        <f t="shared" si="8"/>
+        <v>5.8797384825115988E+70</v>
       </c>
       <c r="C53" s="4">
         <v>345000000000000</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <v>17000000</v>
+        <v>20000000</v>
       </c>
       <c r="H53" t="s">
         <v>59</v>
@@ -2166,8 +2166,8 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="7"/>
-        <v>6.0208522060918767E+70</v>
+        <f t="shared" si="8"/>
+        <v>1.4699346206278998E+71</v>
       </c>
       <c r="C54" s="4">
         <v>354000000000000</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <v>18000000</v>
+        <v>22000000</v>
       </c>
       <c r="H54" t="s">
         <v>60</v>
@@ -2193,8 +2193,8 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="7"/>
-        <v>1.2041704412183753E+71</v>
+        <f t="shared" si="8"/>
+        <v>3.6748365515697491E+71</v>
       </c>
       <c r="C55" s="4">
         <v>363000000000000</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="4">
-        <v>19000000</v>
+        <v>24000000</v>
       </c>
       <c r="H55" t="s">
         <v>61</v>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D79A03-D7FA-4D6D-B2B7-AF51D50DD05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760AF0A-A62D-4AB3-A836-78A5B008F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -264,20 +264,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여우탈1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우탈2</t>
-  </si>
-  <si>
-    <t>여우탈3</t>
-  </si>
-  <si>
-    <t>여우탈4</t>
-  </si>
-  <si>
-    <t>여우탈5</t>
+    <t>적고양이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청고양이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹고양이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자고양이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -711,7 +715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760AF0A-A62D-4AB3-A836-78A5B008F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2FA00E-F698-494F-93EE-DC6AEB1D71F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,26 @@
   </si>
   <si>
     <t>고양이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황견탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹견탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자견탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청견탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계견탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2136,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B55" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B60" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -2217,6 +2237,141 @@
       </c>
       <c r="H55" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="8"/>
+        <v>9.1870913789243734E+71</v>
+      </c>
+      <c r="C56" s="4">
+        <v>372000000000000</v>
+      </c>
+      <c r="D56" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E56" s="4">
+        <v>12800</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>26000000</v>
+      </c>
+      <c r="H56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="8"/>
+        <v>2.2967728447310931E+72</v>
+      </c>
+      <c r="C57" s="4">
+        <v>381000000000000</v>
+      </c>
+      <c r="D57" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E57" s="4">
+        <v>13000</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>28000000</v>
+      </c>
+      <c r="H57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="8"/>
+        <v>5.7419321118277325E+72</v>
+      </c>
+      <c r="C58" s="4">
+        <v>390000000000000</v>
+      </c>
+      <c r="D58" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E58" s="4">
+        <v>13200</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>30000000</v>
+      </c>
+      <c r="H58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4354830279569331E+73</v>
+      </c>
+      <c r="C59" s="4">
+        <v>399000000000000</v>
+      </c>
+      <c r="D59" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E59" s="4">
+        <v>13400</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>32000000</v>
+      </c>
+      <c r="H59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="8"/>
+        <v>3.5887075698923328E+73</v>
+      </c>
+      <c r="C60" s="4">
+        <v>408000000000000</v>
+      </c>
+      <c r="D60" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E60" s="4">
+        <v>13600</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>34000000</v>
+      </c>
+      <c r="H60" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2FA00E-F698-494F-93EE-DC6AEB1D71F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D0C84-02E2-49A4-89A6-5E7C7A51FE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,26 @@
   </si>
   <si>
     <t>천계견탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근두운탈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근두운탈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근두운탈3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근두운탈4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근두운탈5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,11 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2136,7 +2156,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B60" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B65" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -2372,6 +2392,141 @@
       </c>
       <c r="H60" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="8"/>
+        <v>8.9717689247308323E+73</v>
+      </c>
+      <c r="C61" s="4">
+        <v>417000000000000</v>
+      </c>
+      <c r="D61" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E61" s="4">
+        <v>13800</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>36000000</v>
+      </c>
+      <c r="H61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="8"/>
+        <v>2.2429422311827082E+74</v>
+      </c>
+      <c r="C62" s="4">
+        <v>426000000000000</v>
+      </c>
+      <c r="D62" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E62" s="4">
+        <v>14000</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>38000000</v>
+      </c>
+      <c r="H62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="8"/>
+        <v>5.6073555779567705E+74</v>
+      </c>
+      <c r="C63" s="4">
+        <v>435000000000000</v>
+      </c>
+      <c r="D63" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E63" s="4">
+        <v>14200</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>40000000</v>
+      </c>
+      <c r="H63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4018388944891926E+75</v>
+      </c>
+      <c r="C64" s="4">
+        <v>444000000000000</v>
+      </c>
+      <c r="D64" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E64" s="4">
+        <v>14400</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>42000000</v>
+      </c>
+      <c r="H64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="8"/>
+        <v>3.5045972362229817E+75</v>
+      </c>
+      <c r="C65" s="4">
+        <v>453000000000000</v>
+      </c>
+      <c r="D65" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E65" s="4">
+        <v>14600</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>44000000</v>
+      </c>
+      <c r="H65" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D0C84-02E2-49A4-89A6-5E7C7A51FE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76987BFC-CC92-4388-B341-62CAE5D5C27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -304,23 +304,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근두운탈1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근두운탈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근두운탈3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근두운탈4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근두운탈5</t>
+    <t>자반딧불탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청반딧불탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹반딧불탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황반딧불탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반딧불탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76987BFC-CC92-4388-B341-62CAE5D5C27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB76E7-4B6B-424E-A80E-089B18301F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,26 @@
   </si>
   <si>
     <t>반딧불탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,11 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2156,7 +2176,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B65" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B70" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -2527,6 +2547,141 @@
       </c>
       <c r="H65" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="8"/>
+        <v>8.7614930905574544E+75</v>
+      </c>
+      <c r="C66" s="4">
+        <v>462000000000000</v>
+      </c>
+      <c r="D66" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E66" s="4">
+        <v>14800</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>46000000</v>
+      </c>
+      <c r="H66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1903732726393637E+76</v>
+      </c>
+      <c r="C67" s="4">
+        <v>471000000000000</v>
+      </c>
+      <c r="D67" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E67" s="4">
+        <v>15000</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>48000000</v>
+      </c>
+      <c r="H67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="8"/>
+        <v>5.4759331815984095E+76</v>
+      </c>
+      <c r="C68" s="4">
+        <v>480000000000000</v>
+      </c>
+      <c r="D68" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E68" s="4">
+        <v>15200</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>50000000</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3689832953996023E+77</v>
+      </c>
+      <c r="C69" s="4">
+        <v>489000000000000</v>
+      </c>
+      <c r="D69" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E69" s="4">
+        <v>15400</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>52000000</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4224582384990056E+77</v>
+      </c>
+      <c r="C70" s="4">
+        <v>498000000000000</v>
+      </c>
+      <c r="D70" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E70" s="4">
+        <v>15600</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>54000000</v>
+      </c>
+      <c r="H70" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB76E7-4B6B-424E-A80E-089B18301F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E07AA-656A-4BC6-9B5B-EB451A4710CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -324,23 +324,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탈1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈5</t>
+    <t>녹영혼의숲탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황영혼의숲탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남영혼의숲탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자영혼의숲탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등영혼의숲탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E07AA-656A-4BC6-9B5B-EB451A4710CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE72B29-8F70-46CE-A94A-68E76569E914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,23 @@
   <si>
     <t>등영혼의숲탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우탈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우탈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우탈3</t>
+  </si>
+  <si>
+    <t>여우탈4</t>
+  </si>
+  <si>
+    <t>여우탈5</t>
   </si>
 </sst>
 </file>
@@ -771,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -2176,7 +2193,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B70" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B75" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -2682,6 +2699,141 @@
       </c>
       <c r="H70" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="8"/>
+        <v>8.5561455962475141E+77</v>
+      </c>
+      <c r="C71" s="4">
+        <v>507000000000000</v>
+      </c>
+      <c r="D71" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E71" s="4">
+        <v>15800</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>56000000</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1390363990618786E+78</v>
+      </c>
+      <c r="C72" s="4">
+        <v>516000000000000</v>
+      </c>
+      <c r="D72" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E72" s="4">
+        <v>16000</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>58000000</v>
+      </c>
+      <c r="H72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="8"/>
+        <v>5.3475909976546964E+78</v>
+      </c>
+      <c r="C73" s="4">
+        <v>525000000000000</v>
+      </c>
+      <c r="D73" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E73" s="4">
+        <v>16200</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>60000000</v>
+      </c>
+      <c r="H73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3368977494136741E+79</v>
+      </c>
+      <c r="C74" s="4">
+        <v>534000000000000</v>
+      </c>
+      <c r="D74" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E74" s="4">
+        <v>16400</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>62000000</v>
+      </c>
+      <c r="H74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="8"/>
+        <v>3.3422443735341853E+79</v>
+      </c>
+      <c r="C75" s="4">
+        <v>543000000000000</v>
+      </c>
+      <c r="D75" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E75" s="4">
+        <v>16600</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>64000000</v>
+      </c>
+      <c r="H75" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE72B29-8F70-46CE-A94A-68E76569E914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F750CB1-6904-477E-A0B3-3B9A5F2102A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -344,21 +344,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여우탈1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우탈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우탈3</t>
-  </si>
-  <si>
-    <t>여우탈4</t>
-  </si>
-  <si>
-    <t>여우탈5</t>
+    <t>청여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F750CB1-6904-477E-A0B3-3B9A5F2102A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DB317D-A4D6-4107-8324-B9A351CB014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,10 @@
   </si>
   <si>
     <t>적여우탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허수아비탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2196,7 +2200,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B75" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B80" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -2837,6 +2841,141 @@
       </c>
       <c r="H75" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="8"/>
+        <v>8.3556109338354633E+79</v>
+      </c>
+      <c r="C76" s="4">
+        <v>552000000000000</v>
+      </c>
+      <c r="D76" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E76" s="4">
+        <v>16800</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>66000000</v>
+      </c>
+      <c r="H76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="8"/>
+        <v>2.0889027334588659E+80</v>
+      </c>
+      <c r="C77" s="4">
+        <v>561000000000000</v>
+      </c>
+      <c r="D77" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E77" s="4">
+        <v>17000</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>68000000</v>
+      </c>
+      <c r="H77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="8"/>
+        <v>5.2222568336471645E+80</v>
+      </c>
+      <c r="C78" s="4">
+        <v>570000000000000</v>
+      </c>
+      <c r="D78" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E78" s="4">
+        <v>17200</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>70000000</v>
+      </c>
+      <c r="H78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3055642084117912E+81</v>
+      </c>
+      <c r="C79" s="4">
+        <v>579000000000000</v>
+      </c>
+      <c r="D79" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E79" s="4">
+        <v>17400</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>72000000</v>
+      </c>
+      <c r="H79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="8"/>
+        <v>3.2639105210294777E+81</v>
+      </c>
+      <c r="C80" s="4">
+        <v>588000000000000</v>
+      </c>
+      <c r="D80" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E80" s="4">
+        <v>17600</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>74000000</v>
+      </c>
+      <c r="H80" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DB317D-A4D6-4107-8324-B9A351CB014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C4549-4823-40A6-A583-FFB5E0D93180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,10 @@
   </si>
   <si>
     <t>허수아비탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈사람탈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,11 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2200,7 +2204,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B80" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B85" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -2976,6 +2980,141 @@
       </c>
       <c r="H80" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="8"/>
+        <v>8.1597763025736943E+81</v>
+      </c>
+      <c r="C81" s="4">
+        <v>597000000000000</v>
+      </c>
+      <c r="D81" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E81" s="4">
+        <v>17800</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>76000000</v>
+      </c>
+      <c r="H81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="8"/>
+        <v>2.0399440756434234E+82</v>
+      </c>
+      <c r="C82" s="4">
+        <v>606000000000000</v>
+      </c>
+      <c r="D82" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E82" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>78000000</v>
+      </c>
+      <c r="H82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="8"/>
+        <v>5.0998601891085582E+82</v>
+      </c>
+      <c r="C83" s="4">
+        <v>615000000000000</v>
+      </c>
+      <c r="D83" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E83" s="4">
+        <v>18200</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>80000000</v>
+      </c>
+      <c r="H83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2749650472771395E+83</v>
+      </c>
+      <c r="C84" s="4">
+        <v>624000000000000</v>
+      </c>
+      <c r="D84" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E84" s="4">
+        <v>18400</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>82000000</v>
+      </c>
+      <c r="H84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="8"/>
+        <v>3.1874126181928487E+83</v>
+      </c>
+      <c r="C85" s="4">
+        <v>633000000000000</v>
+      </c>
+      <c r="D85" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E85" s="4">
+        <v>18600</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>84000000</v>
+      </c>
+      <c r="H85" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C4549-4823-40A6-A583-FFB5E0D93180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3D0861-4CB4-45C4-838F-775187BEC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,10 @@
   </si>
   <si>
     <t>눈사람탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비가면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,16 +803,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="84.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="128" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
@@ -2204,7 +2208,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B85" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B90" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -3115,6 +3119,141 @@
       </c>
       <c r="H85" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="8"/>
+        <v>7.9685315454821224E+83</v>
+      </c>
+      <c r="C86" s="4">
+        <v>642000000000000</v>
+      </c>
+      <c r="D86" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E86" s="4">
+        <v>18800</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <v>86000000</v>
+      </c>
+      <c r="H86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9921328863705305E+84</v>
+      </c>
+      <c r="C87" s="4">
+        <v>651000000000000</v>
+      </c>
+      <c r="D87" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E87" s="4">
+        <v>19000</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>88000000</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="8"/>
+        <v>4.980332215926326E+84</v>
+      </c>
+      <c r="C88" s="4">
+        <v>660000000000000</v>
+      </c>
+      <c r="D88" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E88" s="4">
+        <v>19200</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0</v>
+      </c>
+      <c r="G88" s="4">
+        <v>90000000</v>
+      </c>
+      <c r="H88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2450830539815815E+85</v>
+      </c>
+      <c r="C89" s="4">
+        <v>669000000000000</v>
+      </c>
+      <c r="D89" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E89" s="4">
+        <v>19400</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>92000000</v>
+      </c>
+      <c r="H89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="8"/>
+        <v>3.1127076349539537E+85</v>
+      </c>
+      <c r="C90" s="4">
+        <v>678000000000000</v>
+      </c>
+      <c r="D90" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E90" s="4">
+        <v>19600</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <v>94000000</v>
+      </c>
+      <c r="H90" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3D0861-4CB4-45C4-838F-775187BEC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CEB202-DF2D-4E58-9795-08EAAB18E353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -803,11 +803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2208,7 +2208,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B90" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B95" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -3254,6 +3254,126 @@
       </c>
       <c r="H90" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="8"/>
+        <v>7.7817690873848846E+85</v>
+      </c>
+      <c r="C91" s="4">
+        <v>687000000000000</v>
+      </c>
+      <c r="D91" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E91" s="4">
+        <v>19800</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9454422718462212E+86</v>
+      </c>
+      <c r="C92" s="4">
+        <v>696000000000000</v>
+      </c>
+      <c r="D92" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E92" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0</v>
+      </c>
+      <c r="G92" s="4">
+        <v>98000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="8"/>
+        <v>4.8636056796155533E+86</v>
+      </c>
+      <c r="C93" s="4">
+        <v>705000000000000</v>
+      </c>
+      <c r="D93" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E93" s="4">
+        <v>20200</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2159014199038884E+87</v>
+      </c>
+      <c r="C94" s="4">
+        <v>714000000000000</v>
+      </c>
+      <c r="D94" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E94" s="4">
+        <v>20400</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>102000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="8"/>
+        <v>3.0397535497597211E+87</v>
+      </c>
+      <c r="C95" s="4">
+        <v>723000000000000</v>
+      </c>
+      <c r="D95" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E95" s="4">
+        <v>20600</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>104000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CEB202-DF2D-4E58-9795-08EAAB18E353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF9BB8-4EA6-49D4-A6B8-4C465FF94E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -803,11 +803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2208,7 +2208,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B95" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B100" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -3374,6 +3374,126 @@
       </c>
       <c r="G95" s="4">
         <v>104000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="8"/>
+        <v>7.5993838743993025E+87</v>
+      </c>
+      <c r="C96" s="4">
+        <v>732000000000000</v>
+      </c>
+      <c r="D96" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E96" s="4">
+        <v>20800</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <v>106000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="8"/>
+        <v>1.8998459685998258E+88</v>
+      </c>
+      <c r="C97" s="4">
+        <v>741000000000000</v>
+      </c>
+      <c r="D97" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E97" s="4">
+        <v>21000</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
+        <v>108000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="8"/>
+        <v>4.7496149214995645E+88</v>
+      </c>
+      <c r="C98" s="4">
+        <v>750000000000000</v>
+      </c>
+      <c r="D98" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E98" s="4">
+        <v>21200</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>110000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1874037303748912E+89</v>
+      </c>
+      <c r="C99" s="4">
+        <v>759000000000000</v>
+      </c>
+      <c r="D99" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E99" s="4">
+        <v>21400</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>112000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="8"/>
+        <v>2.9685093259372277E+89</v>
+      </c>
+      <c r="C100" s="4">
+        <v>768000000000000</v>
+      </c>
+      <c r="D100" s="6">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E100" s="4">
+        <v>21600</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>114000000</v>
       </c>
     </row>
   </sheetData>
